--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriellechandrasaputra/Documents/Monash/2019/FIT3162-Team21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA4D2C-643D-794F-97AD-2527A34EA824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58306780-03E6-4940-AC73-F33E702BAE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="14">
   <si>
     <t>COMMON_NME</t>
   </si>
@@ -42,6 +42,18 @@
     <t>RECORD_TYPE</t>
   </si>
   <si>
+    <t>FAUNA</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Agile Antechinus</t>
+  </si>
+  <si>
+    <t>Captured and released</t>
+  </si>
+  <si>
     <t>RELIABILITY</t>
   </si>
   <si>
@@ -51,113 +63,20 @@
     <t>FLORA</t>
   </si>
   <si>
+    <t>Brown Treecreeper</t>
+  </si>
+  <si>
     <t>PRIMARY_CDE</t>
   </si>
   <si>
-    <t>UFI</t>
-  </si>
-  <si>
     <t>TAXON_ID</t>
-  </si>
-  <si>
-    <t>SCIENTIFIC_DISPLAY_NME</t>
-  </si>
-  <si>
-    <t>TAXON_TYPE</t>
-  </si>
-  <si>
-    <t>RATING_INT</t>
-  </si>
-  <si>
-    <t>RELIABILITY_TXT</t>
-  </si>
-  <si>
-    <t>REVIEW_COMMENT_TXT</t>
-  </si>
-  <si>
-    <t>SAMPLING_METHOD_DESC</t>
-  </si>
-  <si>
-    <t>SURVEY_START_DATE</t>
-  </si>
-  <si>
-    <t>LAT_LONG_ACCURACYDD_INT</t>
-  </si>
-  <si>
-    <t>TOTAL_COUNT_INT</t>
-  </si>
-  <si>
-    <t>BEHAVIOUR</t>
-  </si>
-  <si>
-    <t>EXTRA_INFORMATION</t>
-  </si>
-  <si>
-    <t>SV_RECORD_COUNT</t>
-  </si>
-  <si>
-    <t>STATE_CDE</t>
-  </si>
-  <si>
-    <t>LGA_UFI</t>
-  </si>
-  <si>
-    <t>CMA_NO</t>
-  </si>
-  <si>
-    <t>PARK_ID</t>
-  </si>
-  <si>
-    <t>SURVEY_ID</t>
-  </si>
-  <si>
-    <t>SITE_ORIGIN_STATUS_CDE</t>
-  </si>
-  <si>
-    <t>CREATION_TSP</t>
-  </si>
-  <si>
-    <t>Stylidium despectum</t>
-  </si>
-  <si>
-    <t>Dicotyledons</t>
-  </si>
-  <si>
-    <t>Acceptable</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>13/OCT/1988</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>16/AUG/11 12:00:00.000000000 AM</t>
-  </si>
-  <si>
-    <t>Leucopogon virgatus var. virgatus</t>
-  </si>
-  <si>
-    <t>Common Beard-heath</t>
-  </si>
-  <si>
-    <t>16/FEB/1999</t>
-  </si>
-  <si>
-    <t>12/MAY/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +85,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Dialog"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,290 +453,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="1">
-        <v>613779</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11028</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>-38.356920000000002</v>
+      </c>
+      <c r="E2">
+        <v>144.97150999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11028</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-38.355980000000002</v>
+      </c>
+      <c r="E3">
+        <v>144.96924999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11028</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>-38.355980000000002</v>
+      </c>
+      <c r="E4">
+        <v>144.96924999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11028</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>-37.281019999999998</v>
+      </c>
+      <c r="E5">
+        <v>143.07973000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11028</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E6">
+        <v>145.52175</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>11028</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E7">
+        <v>145.52175</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11028</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E8">
+        <v>145.52175</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11028</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E9">
+        <v>145.52175</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11028</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E10">
+        <v>145.52175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11028</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-37.688339999999997</v>
+      </c>
+      <c r="E11">
+        <v>145.52175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11028</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>-37.955649999999999</v>
+      </c>
+      <c r="E12">
+        <v>145.49364</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11028</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-37.955649999999999</v>
+      </c>
+      <c r="E13">
+        <v>145.49364</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11028</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-37.368679999999998</v>
+      </c>
+      <c r="E14">
+        <v>145.27735000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11028</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>-37.060960000000001</v>
+      </c>
+      <c r="E15">
+        <v>146.74537000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>503998</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>-37.009720000000002</v>
+      </c>
+      <c r="E16">
+        <v>142.72416999999999</v>
+      </c>
+      <c r="F16" t="e">
+        <f>#NUM!</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>60555</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>-35.2151</v>
+      </c>
+      <c r="E17" s="1">
+        <v>142.1182</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-37.009720000000002</v>
-      </c>
-      <c r="M2" s="1">
-        <v>142.72416999999999</v>
-      </c>
-      <c r="N2" s="1">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="1">
-        <v>113</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="1">
-        <v>357</v>
-      </c>
-      <c r="W2" s="1">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1">
-        <v>3396</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>246005</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1">
-        <v>2001011</v>
-      </c>
-      <c r="B3" s="1">
-        <v>504391</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-38.062220000000003</v>
-      </c>
-      <c r="M3" s="1">
-        <v>147.55722</v>
-      </c>
-      <c r="N3" s="1">
-        <v>15</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="1">
-        <v>23</v>
-      </c>
-      <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="1">
-        <v>370</v>
-      </c>
-      <c r="W3" s="1">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>392381</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1">
-        <v>2001732</v>
-      </c>
-      <c r="B4" s="1">
-        <v>504391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-38.059170000000002</v>
-      </c>
-      <c r="M4" s="1">
-        <v>147.55528000000001</v>
-      </c>
-      <c r="N4" s="1">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="1">
-        <v>27</v>
-      </c>
-      <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="1">
-        <v>370</v>
-      </c>
-      <c r="W4" s="1">
-        <v>9</v>
-      </c>
-      <c r="X4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>392411</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>36</v>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>60555</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>-34.716200000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>141.66480000000001</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>60555</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>-36.697699999999998</v>
+      </c>
+      <c r="E19" s="1">
+        <v>142.63300000000001</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>60555</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>-36.9101</v>
+      </c>
+      <c r="E20" s="1">
+        <v>142.65430000000001</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>60555</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>-34.325200000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>142.2921</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>60555</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>-35.467500000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>143.46279999999999</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>60555</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>-36.412700000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>146.0248</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>60555</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>-35.807600000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>144.3434</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>60555</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>-37.016300000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>142.38239999999999</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
